--- a/documents/marker_center_0428.xlsx
+++ b/documents/marker_center_0428.xlsx
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
